--- a/Code/Results/Cases/Case_0_201/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_201/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1733011507689639</v>
+        <v>0.05133061381894777</v>
       </c>
       <c r="D2">
-        <v>0.3957988895346034</v>
+        <v>0.1741290836617964</v>
       </c>
       <c r="E2">
-        <v>0.07619501381555338</v>
+        <v>0.02897493150599217</v>
       </c>
       <c r="F2">
-        <v>7.744394847061216</v>
+        <v>9.640737515037699</v>
       </c>
       <c r="G2">
-        <v>0.0007607922584908866</v>
+        <v>0.002818603874210813</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.904944379108258</v>
+        <v>7.229883981341231</v>
       </c>
       <c r="J2">
-        <v>0.02811407349303785</v>
+        <v>0.1305223454264448</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.07509086310649593</v>
+        <v>0.06925044847813666</v>
       </c>
       <c r="M2">
-        <v>7.024279160453119</v>
+        <v>4.867458019795976</v>
       </c>
       <c r="N2">
-        <v>2.464104320086335</v>
+        <v>1.549158877228081</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.145409580477164</v>
+        <v>0.04592809670845099</v>
       </c>
       <c r="D3">
-        <v>0.3336335611273142</v>
+        <v>0.1637124510925645</v>
       </c>
       <c r="E3">
-        <v>0.065649406798304</v>
+        <v>0.02632812220419822</v>
       </c>
       <c r="F3">
-        <v>6.832586022499072</v>
+        <v>9.581464372333869</v>
       </c>
       <c r="G3">
-        <v>0.0007862410114268337</v>
+        <v>0.002832094617705871</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.203057029695259</v>
+        <v>7.182335385552818</v>
       </c>
       <c r="J3">
-        <v>0.03142530139570088</v>
+        <v>0.1323454732424327</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06808266804905827</v>
+        <v>0.06736256518260575</v>
       </c>
       <c r="M3">
-        <v>6.088914725735776</v>
+        <v>4.668797475599206</v>
       </c>
       <c r="N3">
-        <v>2.249771799270604</v>
+        <v>1.482098851307057</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1293044025408818</v>
+        <v>0.04264993749521295</v>
       </c>
       <c r="D4">
-        <v>0.2979768971458299</v>
+        <v>0.1574809065674572</v>
       </c>
       <c r="E4">
-        <v>0.05942420961300954</v>
+        <v>0.02469600121152382</v>
       </c>
       <c r="F4">
-        <v>6.320605480512256</v>
+        <v>9.552248600161306</v>
       </c>
       <c r="G4">
-        <v>0.0008017955881665667</v>
+        <v>0.00284078433586495</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.808754251888132</v>
+        <v>7.158563980134943</v>
       </c>
       <c r="J4">
-        <v>0.03352202348169708</v>
+        <v>0.1335180159550236</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06389381638595282</v>
+        <v>0.06619946603236571</v>
       </c>
       <c r="M4">
-        <v>5.53575806904351</v>
+        <v>4.548852015357483</v>
       </c>
       <c r="N4">
-        <v>2.120101112334964</v>
+        <v>1.441522863053819</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1229438512298628</v>
+        <v>0.04132335287685862</v>
       </c>
       <c r="D5">
-        <v>0.2839497023009301</v>
+        <v>0.1549815849825364</v>
       </c>
       <c r="E5">
-        <v>0.05693567766378038</v>
+        <v>0.02402902709679466</v>
       </c>
       <c r="F5">
-        <v>6.12182292576577</v>
+        <v>9.54212777377677</v>
       </c>
       <c r="G5">
-        <v>0.0008081426931247839</v>
+        <v>0.002844428196422941</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.655613246027031</v>
+        <v>7.150225236400786</v>
       </c>
       <c r="J5">
-        <v>0.03439251589320591</v>
+        <v>0.1340092048156922</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.06220870477206475</v>
+        <v>0.0657244713021079</v>
       </c>
       <c r="M5">
-        <v>5.314578519112047</v>
+        <v>4.500478524012152</v>
       </c>
       <c r="N5">
-        <v>2.067695599482903</v>
+        <v>1.425140374841874</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1218985617053505</v>
+        <v>0.04110362083926589</v>
       </c>
       <c r="D6">
-        <v>0.281647671002915</v>
+        <v>0.1545689599881399</v>
       </c>
       <c r="E6">
-        <v>0.05652501283674738</v>
+        <v>0.02391816009827963</v>
       </c>
       <c r="F6">
-        <v>6.089355579773553</v>
+        <v>9.540554438929632</v>
       </c>
       <c r="G6">
-        <v>0.0008091977995134709</v>
+        <v>0.002845039477270307</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.630597659116972</v>
+        <v>7.148921582645215</v>
       </c>
       <c r="J6">
-        <v>0.03453803129551947</v>
+        <v>0.1340915739667219</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.06193004462499729</v>
+        <v>0.0656455360811421</v>
       </c>
       <c r="M6">
-        <v>5.278080525043464</v>
+        <v>4.49247649140824</v>
       </c>
       <c r="N6">
-        <v>2.059018754870067</v>
+        <v>1.422429346350555</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1292178647850193</v>
+        <v>0.04263200976272685</v>
       </c>
       <c r="D7">
-        <v>0.2977858329434042</v>
+        <v>0.1574470391550307</v>
       </c>
       <c r="E7">
-        <v>0.05939046966035022</v>
+        <v>0.02468701389846473</v>
       </c>
       <c r="F7">
-        <v>6.317887265474667</v>
+        <v>9.552104906623072</v>
       </c>
       <c r="G7">
-        <v>0.0008018811226093032</v>
+        <v>0.002840833061521983</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4.806660352331875</v>
+        <v>7.158446081878424</v>
       </c>
       <c r="J7">
-        <v>0.03353369817467389</v>
+        <v>0.1335245861627703</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.0638710096669044</v>
+        <v>0.06619306427058547</v>
       </c>
       <c r="M7">
-        <v>5.532759267797388</v>
+        <v>4.548197595382106</v>
       </c>
       <c r="N7">
-        <v>2.119392646306665</v>
+        <v>1.441301302821387</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1634353688764065</v>
+        <v>0.04945941328843162</v>
       </c>
       <c r="D8">
-        <v>0.3737547724401509</v>
+        <v>0.1705025712046222</v>
       </c>
       <c r="E8">
-        <v>0.07249708325538506</v>
+        <v>0.02806368482518096</v>
       </c>
       <c r="F8">
-        <v>7.418579504371252</v>
+        <v>9.618797950546991</v>
       </c>
       <c r="G8">
-        <v>0.0007695996736865052</v>
+        <v>0.002823171479011748</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.654182711001027</v>
+        <v>7.212354049450028</v>
       </c>
       <c r="J8">
-        <v>0.02924264391826803</v>
+        <v>0.131139936139971</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.07264604587901857</v>
+        <v>0.06860030085626789</v>
       </c>
       <c r="M8">
-        <v>6.696633887022699</v>
+        <v>4.798534199553302</v>
       </c>
       <c r="N8">
-        <v>2.389769910023517</v>
+        <v>1.525913321850993</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2420717413120315</v>
+        <v>0.06318192916008059</v>
       </c>
       <c r="D9">
-        <v>0.5508342610018815</v>
+        <v>0.1974664869014759</v>
       </c>
       <c r="E9">
-        <v>0.1011092254044392</v>
+        <v>0.03463582216302186</v>
       </c>
       <c r="F9">
-        <v>10.09426821630001</v>
+        <v>9.807492770620911</v>
       </c>
       <c r="G9">
-        <v>0.0007040760162312569</v>
+        <v>0.002791736010939649</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>7.712564416860005</v>
+        <v>7.361835464153046</v>
       </c>
       <c r="J9">
-        <v>0.02132391188056726</v>
+        <v>0.1268848546951782</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.09119863086611701</v>
+        <v>0.07329151199263606</v>
       </c>
       <c r="M9">
-        <v>9.215368481686085</v>
+        <v>5.305884841453945</v>
       </c>
       <c r="N9">
-        <v>2.93799280633209</v>
+        <v>1.696520859919787</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3146152743253339</v>
+        <v>0.07350314427165472</v>
       </c>
       <c r="D10">
-        <v>0.7163794962445138</v>
+        <v>0.2181920653218299</v>
       </c>
       <c r="E10">
-        <v>0.1260017562566347</v>
+        <v>0.03944285088661559</v>
       </c>
       <c r="F10">
-        <v>12.6800417243694</v>
+        <v>9.982819488141388</v>
       </c>
       <c r="G10">
-        <v>0.0006509103033263174</v>
+        <v>0.002770554647560047</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>9.700569640722819</v>
+        <v>7.499409980499848</v>
       </c>
       <c r="J10">
-        <v>0.0157771959340085</v>
+        <v>0.1240147779986733</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1066469961661554</v>
+        <v>0.07672319022252339</v>
       </c>
       <c r="M10">
-        <v>11.36228403358228</v>
+        <v>5.689153375904965</v>
       </c>
       <c r="N10">
-        <v>3.35656514408609</v>
+        <v>1.824646402142747</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3543656950815546</v>
+        <v>0.07825857435520334</v>
       </c>
       <c r="D11">
-        <v>0.8077389930550112</v>
+        <v>0.227838633859335</v>
       </c>
       <c r="E11">
-        <v>0.1391322229744958</v>
+        <v>0.04162699796450653</v>
       </c>
       <c r="F11">
-        <v>14.12793825686259</v>
+        <v>10.07086409644415</v>
       </c>
       <c r="G11">
-        <v>0.0006239797013723553</v>
+        <v>0.002761326533624296</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.8135274633415</v>
+        <v>7.568265309217878</v>
       </c>
       <c r="J11">
-        <v>0.01329303268316018</v>
+        <v>0.1227645840732077</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1145328477209731</v>
+        <v>0.07828179815438574</v>
       </c>
       <c r="M11">
-        <v>12.47192988101972</v>
+        <v>5.865913228908312</v>
       </c>
       <c r="N11">
-        <v>3.55195664554455</v>
+        <v>1.883524234034809</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3710113196647171</v>
+        <v>0.08006866639124155</v>
       </c>
       <c r="D12">
-        <v>0.8461065517848851</v>
+        <v>0.2315245443114122</v>
       </c>
       <c r="E12">
-        <v>0.1445347253603586</v>
+        <v>0.04245386412893382</v>
       </c>
       <c r="F12">
-        <v>14.73899632450718</v>
+        <v>10.10542265114879</v>
       </c>
       <c r="G12">
-        <v>0.0006131001718011012</v>
+        <v>0.002757890044657566</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.28321114512303</v>
+        <v>7.595261388259672</v>
       </c>
       <c r="J12">
-        <v>0.01235386358671953</v>
+        <v>0.1222991305798953</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1177248197588909</v>
+        <v>0.07887169867889554</v>
       </c>
       <c r="M12">
-        <v>12.92314040521916</v>
+        <v>5.933203307169549</v>
       </c>
       <c r="N12">
-        <v>3.626854838383764</v>
+        <v>1.905903660720696</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3673394795019931</v>
+        <v>0.07967840587267006</v>
       </c>
       <c r="D13">
-        <v>0.8376379695727678</v>
+        <v>0.2307292260406655</v>
       </c>
       <c r="E13">
-        <v>0.1433476528795872</v>
+        <v>0.04227579116799163</v>
       </c>
       <c r="F13">
-        <v>14.60399547746766</v>
+        <v>10.09792525035135</v>
       </c>
       <c r="G13">
-        <v>0.0006154809313566419</v>
+        <v>0.002758627583827673</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.179444617386</v>
+        <v>7.589405961749492</v>
       </c>
       <c r="J13">
-        <v>0.01255617612812454</v>
+        <v>0.1223990199637415</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1170260807010166</v>
+        <v>0.07874466609243314</v>
       </c>
       <c r="M13">
-        <v>12.82428058285129</v>
+        <v>5.918695256821024</v>
       </c>
       <c r="N13">
-        <v>3.610679780366496</v>
+        <v>1.901080153946879</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3556976980437696</v>
+        <v>0.07840730125397499</v>
       </c>
       <c r="D14">
-        <v>0.8108069730581065</v>
+        <v>0.2281412061489902</v>
       </c>
       <c r="E14">
-        <v>0.1395665520179605</v>
+        <v>0.04169502832803573</v>
       </c>
       <c r="F14">
-        <v>14.17674371559849</v>
+        <v>10.07368268590903</v>
       </c>
       <c r="G14">
-        <v>0.0006231008202924968</v>
+        <v>0.002761042652442734</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.85104155921559</v>
+        <v>7.570467695334827</v>
       </c>
       <c r="J14">
-        <v>0.01321577481760539</v>
+        <v>0.1227261312532342</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.114790594886081</v>
+        <v>0.07833033557440672</v>
       </c>
       <c r="M14">
-        <v>12.50832509812432</v>
+        <v>5.87144205963034</v>
       </c>
       <c r="N14">
-        <v>3.558098963037736</v>
+        <v>1.885363734880514</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3488015893842089</v>
+        <v>0.07762994555923797</v>
       </c>
       <c r="D15">
-        <v>0.7949276530882798</v>
+        <v>0.2265603093682103</v>
       </c>
       <c r="E15">
-        <v>0.1373140646448547</v>
+        <v>0.0413392698428261</v>
       </c>
       <c r="F15">
-        <v>13.9242499997336</v>
+        <v>10.05899282610574</v>
       </c>
       <c r="G15">
-        <v>0.0006276669331230592</v>
+        <v>0.002762529487289471</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.65696274392056</v>
+        <v>7.558988150769181</v>
       </c>
       <c r="J15">
-        <v>0.01361980609030766</v>
+        <v>0.1229275339756821</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1134517328096223</v>
+        <v>0.07807650714840975</v>
       </c>
       <c r="M15">
-        <v>12.31935122832243</v>
+        <v>5.842544599640888</v>
       </c>
       <c r="N15">
-        <v>3.526017036464651</v>
+        <v>1.875747824926606</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3121961368924531</v>
+        <v>0.07319363322763195</v>
       </c>
       <c r="D16">
-        <v>0.7108327268692847</v>
+        <v>0.2175661661376864</v>
       </c>
       <c r="E16">
-        <v>0.125191716768537</v>
+        <v>0.03930007223601351</v>
       </c>
       <c r="F16">
-        <v>12.59252283619639</v>
+        <v>9.977234553374046</v>
       </c>
       <c r="G16">
-        <v>0.0006525952386034931</v>
+        <v>0.002771165874350555</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9.633292995344732</v>
+        <v>7.495038037325344</v>
       </c>
       <c r="J16">
-        <v>0.01594005937952847</v>
+        <v>0.124097596153975</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1061545529587349</v>
+        <v>0.07662128551316982</v>
       </c>
       <c r="M16">
-        <v>11.2932636984479</v>
+        <v>5.677650899176655</v>
       </c>
       <c r="N16">
-        <v>3.343910675283666</v>
+        <v>1.820810390253229</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2917819305883569</v>
+        <v>0.07048798738077267</v>
       </c>
       <c r="D17">
-        <v>0.6640921527465196</v>
+        <v>0.2121055798201894</v>
       </c>
       <c r="E17">
-        <v>0.1183033864786331</v>
+        <v>0.03804853108941231</v>
       </c>
       <c r="F17">
-        <v>11.85714061002068</v>
+        <v>9.929219509931045</v>
       </c>
       <c r="G17">
-        <v>0.0006670396434131456</v>
+        <v>0.002776567947836183</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>9.067975913613935</v>
+        <v>7.457427228514234</v>
       </c>
       <c r="J17">
-        <v>0.01737155963908243</v>
+        <v>0.1248295843512475</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1019389981708514</v>
+        <v>0.07572795106021601</v>
       </c>
       <c r="M17">
-        <v>10.70388044102913</v>
+        <v>5.577116897602053</v>
       </c>
       <c r="N17">
-        <v>3.233583515943479</v>
+        <v>1.787258750870308</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2806234551090085</v>
+        <v>0.06893740302750473</v>
       </c>
       <c r="D18">
-        <v>0.6385966641344965</v>
+        <v>0.2089852552614389</v>
       </c>
       <c r="E18">
-        <v>0.1144971722726922</v>
+        <v>0.03732842420339466</v>
       </c>
       <c r="F18">
-        <v>11.45775457905683</v>
+        <v>9.902380969048181</v>
       </c>
       <c r="G18">
-        <v>0.0006751132303763457</v>
+        <v>0.002779713459063606</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>8.76093323419002</v>
+        <v>7.436383585580046</v>
       </c>
       <c r="J18">
-        <v>0.01819895242087366</v>
+        <v>0.1252558208961663</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.09958820024927206</v>
+        <v>0.07521389239776965</v>
       </c>
       <c r="M18">
-        <v>10.37640923382099</v>
+        <v>5.519518612617787</v>
       </c>
       <c r="N18">
-        <v>3.170580494444209</v>
+        <v>1.768016629805828</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2769333115823827</v>
+        <v>0.06841334962884105</v>
       </c>
       <c r="D19">
-        <v>0.6301739441479413</v>
+        <v>0.207932234439113</v>
       </c>
       <c r="E19">
-        <v>0.1132318632495881</v>
+        <v>0.03708456036110519</v>
       </c>
       <c r="F19">
-        <v>11.32610917735104</v>
+        <v>9.893426815130624</v>
       </c>
       <c r="G19">
-        <v>0.000677812227810594</v>
+        <v>0.002780785084577224</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>8.659722549476612</v>
+        <v>7.429359146015713</v>
       </c>
       <c r="J19">
-        <v>0.01847985848005962</v>
+        <v>0.1254010332146605</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.09880334133293189</v>
+        <v>0.07503979901702706</v>
       </c>
       <c r="M19">
-        <v>10.26727679480695</v>
+        <v>5.500055423213183</v>
       </c>
       <c r="N19">
-        <v>3.149322119824802</v>
+        <v>1.761511227787935</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2938916018852922</v>
+        <v>0.07077542052364549</v>
       </c>
       <c r="D20">
-        <v>0.6689167814227233</v>
+        <v>0.2126847398775453</v>
       </c>
       <c r="E20">
-        <v>0.1190196943162007</v>
+        <v>0.03818178495007629</v>
       </c>
       <c r="F20">
-        <v>11.93286335995475</v>
+        <v>9.934250040608902</v>
       </c>
       <c r="G20">
-        <v>0.0006655277116503697</v>
+        <v>0.002775988919817879</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>9.12618891610029</v>
+        <v>7.461369850136407</v>
       </c>
       <c r="J20">
-        <v>0.01721877534962601</v>
+        <v>0.1247511231016007</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1023796986539764</v>
+        <v>0.075823072169932</v>
       </c>
       <c r="M20">
-        <v>10.76536881544516</v>
+        <v>5.587795441149183</v>
       </c>
       <c r="N20">
-        <v>3.245279875301463</v>
+        <v>1.790824607030345</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3590662596729999</v>
+        <v>0.07878039743329168</v>
       </c>
       <c r="D21">
-        <v>0.8185674972836807</v>
+        <v>0.228900462990282</v>
       </c>
       <c r="E21">
-        <v>0.140663367164624</v>
+        <v>0.04186561727741989</v>
       </c>
       <c r="F21">
-        <v>14.30024393929102</v>
+        <v>10.08077004540297</v>
       </c>
       <c r="G21">
-        <v>0.000620884685941323</v>
+        <v>0.00276033171893228</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.94596920748529</v>
+        <v>7.576005134399452</v>
       </c>
       <c r="J21">
-        <v>0.01302204718070499</v>
+        <v>0.122629834501998</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.115440604596003</v>
+        <v>0.07845204253699478</v>
       </c>
       <c r="M21">
-        <v>12.60014161167049</v>
+        <v>5.885311765146099</v>
       </c>
       <c r="N21">
-        <v>3.573516626062485</v>
+        <v>1.88997776960727</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4117903214419414</v>
+        <v>0.0840667184785957</v>
       </c>
       <c r="D22">
-        <v>0.9403337940435961</v>
+        <v>0.2396912797867969</v>
       </c>
       <c r="E22">
-        <v>0.1575489838226076</v>
+        <v>0.04427198911603725</v>
       </c>
       <c r="F22">
-        <v>16.2449566174339</v>
+        <v>10.18364149270769</v>
       </c>
       <c r="G22">
-        <v>0.0005873521190519016</v>
+        <v>0.002750436610082446</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>12.4407445564467</v>
+        <v>7.656310290768289</v>
       </c>
       <c r="J22">
-        <v>0.01028179985305755</v>
+        <v>0.1212898919541825</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1252891451315605</v>
+        <v>0.08016844024440672</v>
       </c>
       <c r="M22">
-        <v>13.99589306045092</v>
+        <v>6.081829164461482</v>
       </c>
       <c r="N22">
-        <v>3.793498274757695</v>
+        <v>1.955267103695775</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3823323650934185</v>
+        <v>0.0812400926568273</v>
       </c>
       <c r="D23">
-        <v>0.8722343375920616</v>
+        <v>0.2339138375491245</v>
       </c>
       <c r="E23">
-        <v>0.1481784889163471</v>
+        <v>0.04298772418426466</v>
       </c>
       <c r="F23">
-        <v>15.15591511775978</v>
+        <v>10.12807738033081</v>
       </c>
       <c r="G23">
-        <v>0.0006058262755923192</v>
+        <v>0.002755687104708903</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.60366895367025</v>
+        <v>7.612950390047246</v>
       </c>
       <c r="J23">
-        <v>0.01174692735830263</v>
+        <v>0.122000795376632</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1198604301966455</v>
+        <v>0.07925251402679123</v>
       </c>
       <c r="M23">
-        <v>13.22556962978732</v>
+        <v>5.976751475580272</v>
       </c>
       <c r="N23">
-        <v>3.675499635461108</v>
+        <v>1.920376899301942</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2929360573991886</v>
+        <v>0.07064545669938127</v>
       </c>
       <c r="D24">
-        <v>0.666731369435638</v>
+        <v>0.2124228424299588</v>
       </c>
       <c r="E24">
-        <v>0.1186953823276369</v>
+        <v>0.0381215426951016</v>
       </c>
       <c r="F24">
-        <v>11.89855769036296</v>
+        <v>9.931973353907438</v>
       </c>
       <c r="G24">
-        <v>0.0006662119569673663</v>
+        <v>0.002776250574247961</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>9.099815978046934</v>
+        <v>7.459585587989409</v>
       </c>
       <c r="J24">
-        <v>0.01728783517170118</v>
+        <v>0.1247865785915954</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1021802362773201</v>
+        <v>0.07578006937988846</v>
       </c>
       <c r="M24">
-        <v>10.7375352262857</v>
+        <v>5.582967049134169</v>
       </c>
       <c r="N24">
-        <v>3.239990638880926</v>
+        <v>1.789212336435497</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2189669155123539</v>
+        <v>0.05943024994589052</v>
       </c>
       <c r="D25">
-        <v>0.4985063424560963</v>
+        <v>0.190017612705617</v>
       </c>
       <c r="E25">
-        <v>0.09289608141130401</v>
+        <v>0.03286230717874261</v>
       </c>
       <c r="F25">
-        <v>9.291357002946881</v>
+        <v>9.750105567728156</v>
       </c>
       <c r="G25">
-        <v>0.0007223251338897016</v>
+        <v>0.002799901359779626</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>7.095079926312906</v>
+        <v>7.316602978856196</v>
       </c>
       <c r="J25">
-        <v>0.02341495856187237</v>
+        <v>0.1279909418732919</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.08595924633434038</v>
+        <v>0.07202526236003592</v>
       </c>
       <c r="M25">
-        <v>8.496845816011728</v>
+        <v>5.166823247771759</v>
       </c>
       <c r="N25">
-        <v>2.787325136343838</v>
+        <v>1.649873639787614</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_201/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_201/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05133061381894777</v>
+        <v>0.173301150769376</v>
       </c>
       <c r="D2">
-        <v>0.1741290836617964</v>
+        <v>0.3957988895347455</v>
       </c>
       <c r="E2">
-        <v>0.02897493150599217</v>
+        <v>0.07619501381558891</v>
       </c>
       <c r="F2">
-        <v>9.640737515037699</v>
+        <v>7.744394847061329</v>
       </c>
       <c r="G2">
-        <v>0.002818603874210813</v>
+        <v>0.0007607922587047081</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>7.229883981341231</v>
+        <v>5.904944379108258</v>
       </c>
       <c r="J2">
-        <v>0.1305223454264448</v>
+        <v>0.02811407349294193</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.06925044847813666</v>
+        <v>0.07509086310640356</v>
       </c>
       <c r="M2">
-        <v>4.867458019795976</v>
+        <v>7.024279160453119</v>
       </c>
       <c r="N2">
-        <v>1.549158877228081</v>
+        <v>2.464104320086278</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04592809670845099</v>
+        <v>0.1454095804775903</v>
       </c>
       <c r="D3">
-        <v>0.1637124510925645</v>
+        <v>0.3336335611268737</v>
       </c>
       <c r="E3">
-        <v>0.02632812220419822</v>
+        <v>0.06564940679828624</v>
       </c>
       <c r="F3">
-        <v>9.581464372333869</v>
+        <v>6.832586022499044</v>
       </c>
       <c r="G3">
-        <v>0.002832094617705871</v>
+        <v>0.0007862410116324025</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>7.182335385552818</v>
+        <v>5.203057029695231</v>
       </c>
       <c r="J3">
-        <v>0.1323454732424327</v>
+        <v>0.03142530139567334</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06736256518260575</v>
+        <v>0.06808266804900143</v>
       </c>
       <c r="M3">
-        <v>4.668797475599206</v>
+        <v>6.088914725735663</v>
       </c>
       <c r="N3">
-        <v>1.482098851307057</v>
+        <v>2.249771799270746</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04264993749521295</v>
+        <v>0.1293044025402992</v>
       </c>
       <c r="D4">
-        <v>0.1574809065674572</v>
+        <v>0.2979768971455883</v>
       </c>
       <c r="E4">
-        <v>0.02469600121152382</v>
+        <v>0.05942420961298822</v>
       </c>
       <c r="F4">
-        <v>9.552248600161306</v>
+        <v>6.320605480512228</v>
       </c>
       <c r="G4">
-        <v>0.00284078433586495</v>
+        <v>0.0008017955882259471</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.158563980134943</v>
+        <v>4.808754251888075</v>
       </c>
       <c r="J4">
-        <v>0.1335180159550236</v>
+        <v>0.03352202348160649</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06619946603236571</v>
+        <v>0.06389381638587111</v>
       </c>
       <c r="M4">
-        <v>4.548852015357483</v>
+        <v>5.535758069043482</v>
       </c>
       <c r="N4">
-        <v>1.441522863053819</v>
+        <v>2.120101112334964</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04132335287685862</v>
+        <v>0.1229438512298486</v>
       </c>
       <c r="D5">
-        <v>0.1549815849825364</v>
+        <v>0.2839497023009017</v>
       </c>
       <c r="E5">
-        <v>0.02402902709679466</v>
+        <v>0.0569356776637413</v>
       </c>
       <c r="F5">
-        <v>9.54212777377677</v>
+        <v>6.121822925765741</v>
       </c>
       <c r="G5">
-        <v>0.002844428196422941</v>
+        <v>0.0008081426931206377</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.150225236400786</v>
+        <v>4.655613246027059</v>
       </c>
       <c r="J5">
-        <v>0.1340092048156922</v>
+        <v>0.03439251589325032</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0657244713021079</v>
+        <v>0.06220870477224949</v>
       </c>
       <c r="M5">
-        <v>4.500478524012152</v>
+        <v>5.31457851911199</v>
       </c>
       <c r="N5">
-        <v>1.425140374841874</v>
+        <v>2.067695599482875</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04110362083926589</v>
+        <v>0.1218985617055921</v>
       </c>
       <c r="D6">
-        <v>0.1545689599881399</v>
+        <v>0.2816476710028581</v>
       </c>
       <c r="E6">
-        <v>0.02391816009827963</v>
+        <v>0.05652501283674738</v>
       </c>
       <c r="F6">
-        <v>9.540554438929632</v>
+        <v>6.089355579773553</v>
       </c>
       <c r="G6">
-        <v>0.002845039477270307</v>
+        <v>0.0008091977994781837</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.148921582645215</v>
+        <v>4.630597659116944</v>
       </c>
       <c r="J6">
-        <v>0.1340915739667219</v>
+        <v>0.03453803129564825</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0656455360811421</v>
+        <v>0.0619300446250044</v>
       </c>
       <c r="M6">
-        <v>4.49247649140824</v>
+        <v>5.278080525043492</v>
       </c>
       <c r="N6">
-        <v>1.422429346350555</v>
+        <v>2.059018754869953</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04263200976272685</v>
+        <v>0.1292178647844082</v>
       </c>
       <c r="D7">
-        <v>0.1574470391550307</v>
+        <v>0.2977858329434326</v>
       </c>
       <c r="E7">
-        <v>0.02468701389846473</v>
+        <v>0.05939046966040706</v>
       </c>
       <c r="F7">
-        <v>9.552104906623072</v>
+        <v>6.317887265474667</v>
       </c>
       <c r="G7">
-        <v>0.002840833061521983</v>
+        <v>0.0008018811226668809</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.158446081878424</v>
+        <v>4.806660352331846</v>
       </c>
       <c r="J7">
-        <v>0.1335245861627703</v>
+        <v>0.03353369817447138</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.06619306427058547</v>
+        <v>0.06387100966699677</v>
       </c>
       <c r="M7">
-        <v>4.548197595382106</v>
+        <v>5.53275926779736</v>
       </c>
       <c r="N7">
-        <v>1.441301302821387</v>
+        <v>2.119392646306665</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04945941328843162</v>
+        <v>0.1634353688768329</v>
       </c>
       <c r="D8">
-        <v>0.1705025712046222</v>
+        <v>0.3737547724403214</v>
       </c>
       <c r="E8">
-        <v>0.02806368482518096</v>
+        <v>0.07249708325537441</v>
       </c>
       <c r="F8">
-        <v>9.618797950546991</v>
+        <v>7.418579504371337</v>
       </c>
       <c r="G8">
-        <v>0.002823171479011748</v>
+        <v>0.0007695996738972505</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>7.212354049450028</v>
+        <v>5.654182711001027</v>
       </c>
       <c r="J8">
-        <v>0.131139936139971</v>
+        <v>0.0292426439182254</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.06860030085626789</v>
+        <v>0.07264604587906121</v>
       </c>
       <c r="M8">
-        <v>4.798534199553302</v>
+        <v>6.696633887022671</v>
       </c>
       <c r="N8">
-        <v>1.525913321850993</v>
+        <v>2.389769910023659</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06318192916008059</v>
+        <v>0.2420717413120315</v>
       </c>
       <c r="D9">
-        <v>0.1974664869014759</v>
+        <v>0.5508342610013983</v>
       </c>
       <c r="E9">
-        <v>0.03463582216302186</v>
+        <v>0.1011092254043788</v>
       </c>
       <c r="F9">
-        <v>9.807492770620911</v>
+        <v>10.09426821630015</v>
       </c>
       <c r="G9">
-        <v>0.002791736010939649</v>
+        <v>0.0007040760160052532</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>7.361835464153046</v>
+        <v>7.712564416860033</v>
       </c>
       <c r="J9">
-        <v>0.1268848546951782</v>
+        <v>0.02132391188075911</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.07329151199263606</v>
+        <v>0.09119863086608859</v>
       </c>
       <c r="M9">
-        <v>5.305884841453945</v>
+        <v>9.215368481686056</v>
       </c>
       <c r="N9">
-        <v>1.696520859919787</v>
+        <v>2.937992806331977</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07350314427165472</v>
+        <v>0.3146152743253054</v>
       </c>
       <c r="D10">
-        <v>0.2181920653218299</v>
+        <v>0.7163794962444854</v>
       </c>
       <c r="E10">
-        <v>0.03944285088661559</v>
+        <v>0.1260017562567306</v>
       </c>
       <c r="F10">
-        <v>9.982819488141388</v>
+        <v>12.68004172436952</v>
       </c>
       <c r="G10">
-        <v>0.002770554647560047</v>
+        <v>0.0006509103031922154</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>7.499409980499848</v>
+        <v>9.700569640722847</v>
       </c>
       <c r="J10">
-        <v>0.1240147779986733</v>
+        <v>0.0157771959340165</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.07672319022252339</v>
+        <v>0.1066469961661696</v>
       </c>
       <c r="M10">
-        <v>5.689153375904965</v>
+        <v>11.36228403358243</v>
       </c>
       <c r="N10">
-        <v>1.824646402142747</v>
+        <v>3.356565144086062</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07825857435520334</v>
+        <v>0.3543656950815546</v>
       </c>
       <c r="D11">
-        <v>0.227838633859335</v>
+        <v>0.8077389930546985</v>
       </c>
       <c r="E11">
-        <v>0.04162699796450653</v>
+        <v>0.1391322229744851</v>
       </c>
       <c r="F11">
-        <v>10.07086409644415</v>
+        <v>14.12793825686288</v>
       </c>
       <c r="G11">
-        <v>0.002761326533624296</v>
+        <v>0.0006239797015905805</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>7.568265309217878</v>
+        <v>10.81352746334167</v>
       </c>
       <c r="J11">
-        <v>0.1227645840732077</v>
+        <v>0.0132930326831513</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.07828179815438574</v>
+        <v>0.1145328477210938</v>
       </c>
       <c r="M11">
-        <v>5.865913228908312</v>
+        <v>12.47192988101983</v>
       </c>
       <c r="N11">
-        <v>1.883524234034809</v>
+        <v>3.55195664554455</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08006866639124155</v>
+        <v>0.3710113196642624</v>
       </c>
       <c r="D12">
-        <v>0.2315245443114122</v>
+        <v>0.846106551785283</v>
       </c>
       <c r="E12">
-        <v>0.04245386412893382</v>
+        <v>0.1445347253604083</v>
       </c>
       <c r="F12">
-        <v>10.10542265114879</v>
+        <v>14.73899632450735</v>
       </c>
       <c r="G12">
-        <v>0.002757890044657566</v>
+        <v>0.0006131001716938514</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>7.595261388259672</v>
+        <v>11.28321114512323</v>
       </c>
       <c r="J12">
-        <v>0.1222991305798953</v>
+        <v>0.0123538635867293</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.07887169867889554</v>
+        <v>0.1177248197591609</v>
       </c>
       <c r="M12">
-        <v>5.933203307169549</v>
+        <v>12.92314040521921</v>
       </c>
       <c r="N12">
-        <v>1.905903660720696</v>
+        <v>3.626854838383792</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07967840587267006</v>
+        <v>0.3673394795028173</v>
       </c>
       <c r="D13">
-        <v>0.2307292260406655</v>
+        <v>0.8376379695725973</v>
       </c>
       <c r="E13">
-        <v>0.04227579116799163</v>
+        <v>0.1433476528795836</v>
       </c>
       <c r="F13">
-        <v>10.09792525035135</v>
+        <v>14.60399547746744</v>
       </c>
       <c r="G13">
-        <v>0.002758627583827673</v>
+        <v>0.0006154809312406047</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>7.589405961749492</v>
+        <v>11.17944461738585</v>
       </c>
       <c r="J13">
-        <v>0.1223990199637415</v>
+        <v>0.01255617612840521</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.07874466609243314</v>
+        <v>0.1170260807008248</v>
       </c>
       <c r="M13">
-        <v>5.918695256821024</v>
+        <v>12.82428058285117</v>
       </c>
       <c r="N13">
-        <v>1.901080153946879</v>
+        <v>3.610679780366468</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07840730125397499</v>
+        <v>0.3556976980436843</v>
       </c>
       <c r="D14">
-        <v>0.2281412061489902</v>
+        <v>0.8108069730578507</v>
       </c>
       <c r="E14">
-        <v>0.04169502832803573</v>
+        <v>0.1395665520180316</v>
       </c>
       <c r="F14">
-        <v>10.07368268590903</v>
+        <v>14.17674371559832</v>
       </c>
       <c r="G14">
-        <v>0.002761042652442734</v>
+        <v>0.0006231008203044336</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>7.570467695334827</v>
+        <v>10.85104155921542</v>
       </c>
       <c r="J14">
-        <v>0.1227261312532342</v>
+        <v>0.01321577481783365</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.07833033557440672</v>
+        <v>0.1147905948862089</v>
       </c>
       <c r="M14">
-        <v>5.87144205963034</v>
+        <v>12.50832509812417</v>
       </c>
       <c r="N14">
-        <v>1.885363734880514</v>
+        <v>3.558098963037622</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07762994555923797</v>
+        <v>0.3488015893842373</v>
       </c>
       <c r="D15">
-        <v>0.2265603093682103</v>
+        <v>0.7949276530880525</v>
       </c>
       <c r="E15">
-        <v>0.0413392698428261</v>
+        <v>0.1373140646448547</v>
       </c>
       <c r="F15">
-        <v>10.05899282610574</v>
+        <v>13.9242499997336</v>
       </c>
       <c r="G15">
-        <v>0.002762529487289471</v>
+        <v>0.0006276669329945186</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>7.558988150769181</v>
+        <v>10.65696274392053</v>
       </c>
       <c r="J15">
-        <v>0.1229275339756821</v>
+        <v>0.01361980609019842</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.07807650714840975</v>
+        <v>0.1134517328095015</v>
       </c>
       <c r="M15">
-        <v>5.842544599640888</v>
+        <v>12.3193512283224</v>
       </c>
       <c r="N15">
-        <v>1.875747824926606</v>
+        <v>3.526017036464651</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07319363322763195</v>
+        <v>0.3121961368920694</v>
       </c>
       <c r="D16">
-        <v>0.2175661661376864</v>
+        <v>0.7108327268696826</v>
       </c>
       <c r="E16">
-        <v>0.03930007223601351</v>
+        <v>0.1251917167685583</v>
       </c>
       <c r="F16">
-        <v>9.977234553374046</v>
+        <v>12.59252283619628</v>
       </c>
       <c r="G16">
-        <v>0.002771165874350555</v>
+        <v>0.0006525952386734292</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>7.495038037325344</v>
+        <v>9.633292995344846</v>
       </c>
       <c r="J16">
-        <v>0.124097596153975</v>
+        <v>0.01594005937947784</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.07662128551316982</v>
+        <v>0.1061545529585715</v>
       </c>
       <c r="M16">
-        <v>5.677650899176655</v>
+        <v>11.2932636984479</v>
       </c>
       <c r="N16">
-        <v>1.820810390253229</v>
+        <v>3.343910675283638</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07048798738077267</v>
+        <v>0.2917819305888116</v>
       </c>
       <c r="D17">
-        <v>0.2121055798201894</v>
+        <v>0.6640921527466901</v>
       </c>
       <c r="E17">
-        <v>0.03804853108941231</v>
+        <v>0.1183033864786474</v>
       </c>
       <c r="F17">
-        <v>9.929219509931045</v>
+        <v>11.85714061002068</v>
       </c>
       <c r="G17">
-        <v>0.002776567947836183</v>
+        <v>0.0006670396432812511</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>7.457427228514234</v>
+        <v>9.067975913613992</v>
       </c>
       <c r="J17">
-        <v>0.1248295843512475</v>
+        <v>0.01737155963910375</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.07572795106021601</v>
+        <v>0.101938998170759</v>
       </c>
       <c r="M17">
-        <v>5.577116897602053</v>
+        <v>10.70388044102927</v>
       </c>
       <c r="N17">
-        <v>1.787258750870308</v>
+        <v>3.233583515943479</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06893740302750473</v>
+        <v>0.2806234551094633</v>
       </c>
       <c r="D18">
-        <v>0.2089852552614389</v>
+        <v>0.6385966641342122</v>
       </c>
       <c r="E18">
-        <v>0.03732842420339466</v>
+        <v>0.1144971722727313</v>
       </c>
       <c r="F18">
-        <v>9.902380969048181</v>
+        <v>11.45775457905688</v>
       </c>
       <c r="G18">
-        <v>0.002779713459063606</v>
+        <v>0.0006751132302815326</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>7.436383585580046</v>
+        <v>8.760933234190134</v>
       </c>
       <c r="J18">
-        <v>0.1252558208961663</v>
+        <v>0.01819895242108327</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.07521389239776965</v>
+        <v>0.09958820024917259</v>
       </c>
       <c r="M18">
-        <v>5.519518612617787</v>
+        <v>10.37640923382116</v>
       </c>
       <c r="N18">
-        <v>1.768016629805828</v>
+        <v>3.170580494444067</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06841334962884105</v>
+        <v>0.2769333115823827</v>
       </c>
       <c r="D19">
-        <v>0.207932234439113</v>
+        <v>0.6301739441481686</v>
       </c>
       <c r="E19">
-        <v>0.03708456036110519</v>
+        <v>0.1132318632495632</v>
       </c>
       <c r="F19">
-        <v>9.893426815130624</v>
+        <v>11.32610917735099</v>
       </c>
       <c r="G19">
-        <v>0.002780785084577224</v>
+        <v>0.0006778122279138501</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>7.429359146015713</v>
+        <v>8.659722549476641</v>
       </c>
       <c r="J19">
-        <v>0.1254010332146605</v>
+        <v>0.0184798584800685</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.07503979901702706</v>
+        <v>0.0988033413329461</v>
       </c>
       <c r="M19">
-        <v>5.500055423213183</v>
+        <v>10.26727679480695</v>
       </c>
       <c r="N19">
-        <v>1.761511227787935</v>
+        <v>3.149322119824802</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07077542052364549</v>
+        <v>0.293891601885278</v>
       </c>
       <c r="D20">
-        <v>0.2126847398775453</v>
+        <v>0.6689167814226664</v>
       </c>
       <c r="E20">
-        <v>0.03818178495007629</v>
+        <v>0.1190196943162292</v>
       </c>
       <c r="F20">
-        <v>9.934250040608902</v>
+        <v>11.93286335995481</v>
       </c>
       <c r="G20">
-        <v>0.002775988919817879</v>
+        <v>0.00066552771177095</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>7.461369850136407</v>
+        <v>9.126188916100318</v>
       </c>
       <c r="J20">
-        <v>0.1247511231016007</v>
+        <v>0.0172187753497095</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.075823072169932</v>
+        <v>0.1023796986540688</v>
       </c>
       <c r="M20">
-        <v>5.587795441149183</v>
+        <v>10.76536881544519</v>
       </c>
       <c r="N20">
-        <v>1.790824607030345</v>
+        <v>3.245279875301463</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07878039743329168</v>
+        <v>0.3590662596719767</v>
       </c>
       <c r="D21">
-        <v>0.228900462990282</v>
+        <v>0.8185674972838797</v>
       </c>
       <c r="E21">
-        <v>0.04186561727741989</v>
+        <v>0.140663367164592</v>
       </c>
       <c r="F21">
-        <v>10.08077004540297</v>
+        <v>14.30024393929097</v>
       </c>
       <c r="G21">
-        <v>0.00276033171893228</v>
+        <v>0.0006208846859438307</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>7.576005134399452</v>
+        <v>10.94596920748529</v>
       </c>
       <c r="J21">
-        <v>0.122629834501998</v>
+        <v>0.01302204718072719</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.07845204253699478</v>
+        <v>0.1154406045960243</v>
       </c>
       <c r="M21">
-        <v>5.885311765146099</v>
+        <v>12.60014161167049</v>
       </c>
       <c r="N21">
-        <v>1.88997776960727</v>
+        <v>3.573516626062371</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0840667184785957</v>
+        <v>0.4117903214428509</v>
       </c>
       <c r="D22">
-        <v>0.2396912797867969</v>
+        <v>0.9403337940439087</v>
       </c>
       <c r="E22">
-        <v>0.04427198911603725</v>
+        <v>0.1575489838225899</v>
       </c>
       <c r="F22">
-        <v>10.18364149270769</v>
+        <v>16.24495661743367</v>
       </c>
       <c r="G22">
-        <v>0.002750436610082446</v>
+        <v>0.0005873521190599653</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>7.656310290768289</v>
+        <v>12.44074455644659</v>
       </c>
       <c r="J22">
-        <v>0.1212898919541825</v>
+        <v>0.01028179985288702</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.08016844024440672</v>
+        <v>0.1252891451316387</v>
       </c>
       <c r="M22">
-        <v>6.081829164461482</v>
+        <v>13.99589306045078</v>
       </c>
       <c r="N22">
-        <v>1.955267103695775</v>
+        <v>3.793498274757695</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0812400926568273</v>
+        <v>0.3823323650935038</v>
       </c>
       <c r="D23">
-        <v>0.2339138375491245</v>
+        <v>0.8722343375924027</v>
       </c>
       <c r="E23">
-        <v>0.04298772418426466</v>
+        <v>0.1481784889163649</v>
       </c>
       <c r="F23">
-        <v>10.12807738033081</v>
+        <v>15.15591511776</v>
       </c>
       <c r="G23">
-        <v>0.002755687104708903</v>
+        <v>0.0006058262756783668</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>7.612950390047246</v>
+        <v>11.60366895367045</v>
       </c>
       <c r="J23">
-        <v>0.122000795376632</v>
+        <v>0.01174692735843674</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.07925251402679123</v>
+        <v>0.1198604301964394</v>
       </c>
       <c r="M23">
-        <v>5.976751475580272</v>
+        <v>13.2255696297874</v>
       </c>
       <c r="N23">
-        <v>1.920376899301942</v>
+        <v>3.675499635460966</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07064545669938127</v>
+        <v>0.2929360573987339</v>
       </c>
       <c r="D24">
-        <v>0.2124228424299588</v>
+        <v>0.6667313694356665</v>
       </c>
       <c r="E24">
-        <v>0.0381215426951016</v>
+        <v>0.1186953823277115</v>
       </c>
       <c r="F24">
-        <v>9.931973353907438</v>
+        <v>11.89855769036285</v>
       </c>
       <c r="G24">
-        <v>0.002776250574247961</v>
+        <v>0.0006662119569740378</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>7.459585587989409</v>
+        <v>9.099815978046792</v>
       </c>
       <c r="J24">
-        <v>0.1247865785915954</v>
+        <v>0.01728783517144095</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.07578006937988846</v>
+        <v>0.1021802362775048</v>
       </c>
       <c r="M24">
-        <v>5.582967049134169</v>
+        <v>10.73753522628556</v>
       </c>
       <c r="N24">
-        <v>1.789212336435497</v>
+        <v>3.239990638880869</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05943024994589052</v>
+        <v>0.2189669155123681</v>
       </c>
       <c r="D25">
-        <v>0.190017612705617</v>
+        <v>0.4985063424560963</v>
       </c>
       <c r="E25">
-        <v>0.03286230717874261</v>
+        <v>0.09289608141133598</v>
       </c>
       <c r="F25">
-        <v>9.750105567728156</v>
+        <v>9.29135700294691</v>
       </c>
       <c r="G25">
-        <v>0.002799901359779626</v>
+        <v>0.0007223251340047065</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>7.316602978856196</v>
+        <v>7.095079926312906</v>
       </c>
       <c r="J25">
-        <v>0.1279909418732919</v>
+        <v>0.0234149585618848</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.07202526236003592</v>
+        <v>0.08595924633412011</v>
       </c>
       <c r="M25">
-        <v>5.166823247771759</v>
+        <v>8.496845816011728</v>
       </c>
       <c r="N25">
-        <v>1.649873639787614</v>
+        <v>2.787325136343838</v>
       </c>
       <c r="O25">
         <v>0</v>
